--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value948.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value948.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.144194142459598</v>
+        <v>1.438264012336731</v>
       </c>
       <c r="B1">
-        <v>1.710087967275947</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.294955968856812</v>
       </c>
       <c r="E1">
-        <v>1.162658550313257</v>
+        <v>0.8882023692131042</v>
       </c>
     </row>
   </sheetData>
